--- a/论文审查标准.xlsx
+++ b/论文审查标准.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siye.jsy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siye.jsy\Desktop\我的论文\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603917E4-6B51-4B4A-BBD7-8D9D5F143BA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9870E7AA-6277-4984-9E23-F047DFA5BF07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -314,9 +314,6 @@
     <t>表编号中是否有重复的或者不连续。</t>
   </si>
   <si>
-    <t>代码是否使用了1行1列的表格框（且使用黑色实线条边框），并标注图名和图序号。且在一个表格框中连续的代码行累计不超过1页(可以跨页计算)，如果项目中的实际代码行超出一页，请自觉精简，可以用汉字注释省略了哪些代码。</t>
-  </si>
-  <si>
     <t>表格单元格的文字段落不要有首行缩进；单元格左对齐（有时也可以适当使用居中对齐，整齐美观即可）；单元格的内容尽量控制在一行；单元格内使用五号字体、单倍行距。依据排版需要，可以适当调低单元格的左右上下边距为（0.3mm至0.8mm）。</t>
   </si>
   <si>
@@ -5336,6 +5333,10 @@
   </si>
   <si>
     <t>检查是否存在将中文文献误当作英文文献写。因为大家是写中文论文，如果源文献是中文出版的，必须写该文献的中文作者名，中文标题，中文期刊名或者中文会议名等信息。请诸位自觉检查！例如：经常有学生将《计算机技术与发展》中文期刊，当作英文期刊《Computer Technology and Development》写文献。</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码是否使用了1行1列的表格框（且使用黑色实线条边框），并标注图名和图序号。且在一个表格框中连续的代码行累计不超过1页(可以跨页计算)，如果项目中的实际代码行超出一页，请自觉精简，可以用汉字注释省略了哪些代码。</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -5343,7 +5344,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5510,6 +5511,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5659,7 +5668,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5801,6 +5810,9 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5822,8 +5834,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6107,8 +6119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -6137,7 +6149,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="30">
@@ -6147,12 +6159,12 @@
         <v>5</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="30">
         <v>2</v>
       </c>
@@ -6160,12 +6172,12 @@
         <v>6</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="30">
         <v>3</v>
       </c>
@@ -6173,12 +6185,12 @@
         <v>7</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="30">
         <v>4</v>
       </c>
@@ -6186,12 +6198,12 @@
         <v>8</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="30">
         <v>5</v>
       </c>
@@ -6199,12 +6211,12 @@
         <v>9</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="48" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="30">
@@ -6214,12 +6226,12 @@
         <v>11</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E7" s="31"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="30">
         <v>7</v>
       </c>
@@ -6227,12 +6239,12 @@
         <v>12</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E8" s="31"/>
     </row>
     <row r="9" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="30">
         <v>8</v>
       </c>
@@ -6240,12 +6252,12 @@
         <v>13</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E9" s="31"/>
     </row>
     <row r="10" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="30">
         <v>9</v>
       </c>
@@ -6253,12 +6265,12 @@
         <v>14</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E10" s="31"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="30">
         <v>10</v>
       </c>
@@ -6266,12 +6278,12 @@
         <v>15</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E11" s="31"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="30">
         <v>11</v>
       </c>
@@ -6279,25 +6291,25 @@
         <v>16</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E12" s="31"/>
     </row>
     <row r="13" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="30">
         <v>12</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E13" s="31"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="30">
         <v>13</v>
       </c>
@@ -6305,12 +6317,12 @@
         <v>17</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E14" s="31"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="48" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="30">
@@ -6320,12 +6332,12 @@
         <v>19</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E15" s="31"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="30">
         <v>15</v>
       </c>
@@ -6333,12 +6345,12 @@
         <v>20</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E16" s="31"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="30">
         <v>16</v>
       </c>
@@ -6346,12 +6358,12 @@
         <v>21</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E17" s="31"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="30">
         <v>17</v>
       </c>
@@ -6359,12 +6371,12 @@
         <v>22</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E18" s="31"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="30">
         <v>18</v>
       </c>
@@ -6372,12 +6384,12 @@
         <v>23</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E19" s="31"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="30">
         <v>19</v>
       </c>
@@ -6385,25 +6397,25 @@
         <v>24</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E20" s="31"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="30">
         <v>20</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E21" s="31"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="30">
         <v>21</v>
       </c>
@@ -6411,12 +6423,12 @@
         <v>25</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E22" s="31"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="30">
         <v>22</v>
       </c>
@@ -6424,12 +6436,12 @@
         <v>26</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E23" s="31"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="30">
         <v>23</v>
       </c>
@@ -6437,27 +6449,27 @@
         <v>27</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="48" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="30">
         <v>24</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E25" s="31"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="30">
         <v>25</v>
       </c>
@@ -6465,12 +6477,12 @@
         <v>30</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E26" s="31"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="30">
         <v>26</v>
       </c>
@@ -6478,12 +6490,12 @@
         <v>31</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E27" s="31"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="30">
         <v>27</v>
       </c>
@@ -6491,12 +6503,12 @@
         <v>32</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E28" s="31"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="30">
         <v>28</v>
       </c>
@@ -6504,25 +6516,25 @@
         <v>33</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E29" s="31"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="30">
         <v>29</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E30" s="31"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="30">
         <v>30</v>
       </c>
@@ -6530,12 +6542,12 @@
         <v>34</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E31" s="31"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="30">
         <v>31</v>
       </c>
@@ -6543,12 +6555,12 @@
         <v>35</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E32" s="31"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="30">
         <v>32</v>
       </c>
@@ -6556,12 +6568,12 @@
         <v>36</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E33" s="31"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="30">
         <v>33</v>
       </c>
@@ -6569,12 +6581,12 @@
         <v>37</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E34" s="31"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="30">
         <v>34</v>
       </c>
@@ -6582,12 +6594,12 @@
         <v>38</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E35" s="31"/>
     </row>
     <row r="36" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="30">
         <v>35</v>
       </c>
@@ -6595,12 +6607,12 @@
         <v>39</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E36" s="31"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="30">
         <v>36</v>
       </c>
@@ -6608,12 +6620,12 @@
         <v>40</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E37" s="31"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="30">
         <v>37</v>
       </c>
@@ -6621,12 +6633,12 @@
         <v>41</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E38" s="31"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="30">
         <v>38</v>
       </c>
@@ -6634,12 +6646,12 @@
         <v>42</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E39" s="31"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="30">
         <v>39</v>
       </c>
@@ -6647,12 +6659,12 @@
         <v>43</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E40" s="31"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
+      <c r="A41" s="48"/>
       <c r="B41" s="30">
         <v>40</v>
       </c>
@@ -6660,62 +6672,62 @@
         <v>44</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E41" s="31"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="48" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="30">
         <v>41</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D42" s="32"/>
       <c r="E42" s="31"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="30">
         <v>42</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D43" s="32"/>
       <c r="E43" s="31"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="48" t="s">
         <v>46</v>
       </c>
       <c r="B44" s="30">
         <v>43</v>
       </c>
       <c r="C44" s="42" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D44" s="32"/>
       <c r="E44" s="31"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
+      <c r="A45" s="48"/>
       <c r="B45" s="30">
         <v>44</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E45" s="31"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
+      <c r="A46" s="48"/>
       <c r="B46" s="30">
         <v>45</v>
       </c>
@@ -6723,27 +6735,27 @@
         <v>47</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E46" s="31"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="47" t="s">
+      <c r="A47" s="48" t="s">
         <v>48</v>
       </c>
       <c r="B47" s="30">
         <v>46</v>
       </c>
       <c r="C47" s="43" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E47" s="31"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
+      <c r="A48" s="48"/>
       <c r="B48" s="30">
         <v>47</v>
       </c>
@@ -6751,12 +6763,12 @@
         <v>49</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E48" s="31"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
+      <c r="A49" s="48"/>
       <c r="B49" s="30">
         <v>48</v>
       </c>
@@ -6764,12 +6776,12 @@
         <v>50</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E49" s="31"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
+      <c r="A50" s="48"/>
       <c r="B50" s="30">
         <v>49</v>
       </c>
@@ -6777,12 +6789,12 @@
         <v>51</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E50" s="31"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="48" t="s">
+      <c r="A51" s="49" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="30">
@@ -6792,12 +6804,12 @@
         <v>53</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E51" s="31"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
+      <c r="A52" s="50"/>
       <c r="B52" s="30">
         <v>51</v>
       </c>
@@ -6805,25 +6817,25 @@
         <v>54</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E52" s="31"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="49"/>
+      <c r="A53" s="50"/>
       <c r="B53" s="30">
         <v>52</v>
       </c>
       <c r="C53" s="44" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E53" s="31"/>
     </row>
     <row r="54" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
+      <c r="A54" s="50"/>
       <c r="B54" s="36">
         <v>53</v>
       </c>
@@ -6831,12 +6843,12 @@
         <v>55</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E54" s="31"/>
     </row>
     <row r="55" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="50"/>
+      <c r="A55" s="51"/>
       <c r="B55" s="36">
         <v>54</v>
       </c>
@@ -6847,30 +6859,30 @@
       <c r="E55" s="31"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="47" t="s">
+      <c r="A56" s="48" t="s">
         <v>57</v>
       </c>
       <c r="B56" s="30">
         <v>55</v>
       </c>
       <c r="C56" s="42" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E56" s="31"/>
     </row>
     <row r="57" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="47"/>
+      <c r="A57" s="48"/>
       <c r="B57" s="30">
         <v>56</v>
       </c>
       <c r="C57" s="45" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E57" s="31"/>
     </row>
@@ -6882,43 +6894,43 @@
         <v>57</v>
       </c>
       <c r="C58" s="42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E58" s="31"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="51" t="s">
+      <c r="A59" s="52" t="s">
         <v>60</v>
       </c>
       <c r="B59" s="30">
         <v>58</v>
       </c>
       <c r="C59" s="42" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E59" s="31"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="52"/>
+      <c r="A60" s="53"/>
       <c r="B60" s="30">
         <v>59</v>
       </c>
       <c r="C60" s="42" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E60" s="31"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="52"/>
+      <c r="A61" s="53"/>
       <c r="B61" s="30">
         <v>60</v>
       </c>
@@ -6926,12 +6938,12 @@
         <v>61</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E61" s="31"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="52"/>
+      <c r="A62" s="53"/>
       <c r="B62" s="30">
         <v>61</v>
       </c>
@@ -6939,25 +6951,25 @@
         <v>62</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E62" s="31"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="52"/>
+      <c r="A63" s="53"/>
       <c r="B63" s="30">
         <v>62</v>
       </c>
       <c r="C63" s="42" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E63" s="31"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="52"/>
+      <c r="A64" s="53"/>
       <c r="B64" s="30">
         <v>63</v>
       </c>
@@ -6965,12 +6977,12 @@
         <v>63</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E64" s="31"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="52"/>
+      <c r="A65" s="53"/>
       <c r="B65" s="30">
         <v>64</v>
       </c>
@@ -6978,25 +6990,25 @@
         <v>64</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E65" s="31"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="52"/>
+      <c r="A66" s="53"/>
       <c r="B66" s="30">
         <v>65</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E66" s="31"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="52"/>
+      <c r="A67" s="53"/>
       <c r="B67" s="30">
         <v>66</v>
       </c>
@@ -7004,12 +7016,12 @@
         <v>65</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E67" s="31"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="52"/>
+      <c r="A68" s="53"/>
       <c r="B68" s="30">
         <v>67</v>
       </c>
@@ -7017,12 +7029,12 @@
         <v>66</v>
       </c>
       <c r="D68" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E68" s="31"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="52"/>
+      <c r="A69" s="53"/>
       <c r="B69" s="30">
         <v>68</v>
       </c>
@@ -7030,12 +7042,12 @@
         <v>67</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E69" s="31"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="52"/>
+      <c r="A70" s="53"/>
       <c r="B70" s="30">
         <v>69</v>
       </c>
@@ -7043,12 +7055,12 @@
         <v>68</v>
       </c>
       <c r="D70" s="40" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E70" s="31"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="52"/>
+      <c r="A71" s="53"/>
       <c r="B71" s="30">
         <v>70</v>
       </c>
@@ -7056,12 +7068,12 @@
         <v>69</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E71" s="31"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="52"/>
+      <c r="A72" s="53"/>
       <c r="B72" s="30">
         <v>71</v>
       </c>
@@ -7069,82 +7081,82 @@
         <v>70</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E72" s="31"/>
     </row>
     <row r="73" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A73" s="52"/>
+      <c r="A73" s="53"/>
       <c r="B73" s="30">
         <v>72</v>
       </c>
       <c r="C73" s="44" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E73" s="31"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="52"/>
+      <c r="A74" s="53"/>
       <c r="B74" s="30"/>
       <c r="C74" s="38" t="s">
         <v>72</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E74" s="31"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="52"/>
+      <c r="A75" s="53"/>
       <c r="B75" s="30"/>
       <c r="C75" s="46" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D75" s="40" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E75" s="31"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="52"/>
+      <c r="A76" s="53"/>
       <c r="B76" s="30"/>
       <c r="C76" s="38" t="s">
         <v>73</v>
       </c>
       <c r="D76" s="40" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E76" s="31"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="52"/>
+      <c r="A77" s="53"/>
       <c r="B77" s="30"/>
       <c r="C77" s="46" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D77" s="40" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E77" s="31"/>
     </row>
     <row r="78" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A78" s="53"/>
+      <c r="A78" s="54"/>
       <c r="B78" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C78" s="54" t="s">
-        <v>347</v>
+      <c r="C78" s="47" t="s">
+        <v>346</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E78" s="31"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="47" t="s">
+      <c r="A79" s="48" t="s">
         <v>75</v>
       </c>
       <c r="B79" s="30">
@@ -7154,25 +7166,25 @@
         <v>76</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E79" s="31"/>
     </row>
     <row r="80" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A80" s="47"/>
+      <c r="A80" s="48"/>
       <c r="B80" s="30">
         <v>74</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D80" s="40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E80" s="31"/>
     </row>
     <row r="81" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A81" s="47"/>
+      <c r="A81" s="48"/>
       <c r="B81" s="30">
         <v>75</v>
       </c>
@@ -7180,12 +7192,12 @@
         <v>77</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E81" s="31"/>
     </row>
     <row r="82" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A82" s="47"/>
+      <c r="A82" s="48"/>
       <c r="B82" s="30">
         <v>76</v>
       </c>
@@ -7193,12 +7205,12 @@
         <v>78</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E82" s="31"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="47"/>
+      <c r="A83" s="48"/>
       <c r="B83" s="30">
         <v>77</v>
       </c>
@@ -7206,12 +7218,12 @@
         <v>79</v>
       </c>
       <c r="D83" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E83" s="31"/>
     </row>
     <row r="84" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A84" s="47"/>
+      <c r="A84" s="48"/>
       <c r="B84" s="30">
         <v>78</v>
       </c>
@@ -7219,12 +7231,12 @@
         <v>80</v>
       </c>
       <c r="D84" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E84" s="31"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="47"/>
+      <c r="A85" s="48"/>
       <c r="B85" s="30">
         <v>79</v>
       </c>
@@ -7232,12 +7244,12 @@
         <v>81</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E85" s="31"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="47"/>
+      <c r="A86" s="48"/>
       <c r="B86" s="30">
         <v>80</v>
       </c>
@@ -7245,12 +7257,12 @@
         <v>82</v>
       </c>
       <c r="D86" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E86" s="31"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="47"/>
+      <c r="A87" s="48"/>
       <c r="B87" s="30">
         <v>81</v>
       </c>
@@ -7258,12 +7270,12 @@
         <v>83</v>
       </c>
       <c r="D87" s="40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E87" s="31"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="47"/>
+      <c r="A88" s="48"/>
       <c r="B88" s="30">
         <v>82</v>
       </c>
@@ -7271,12 +7283,12 @@
         <v>84</v>
       </c>
       <c r="D88" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E88" s="31"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="47"/>
+      <c r="A89" s="48"/>
       <c r="B89" s="30">
         <v>83</v>
       </c>
@@ -7284,12 +7296,12 @@
         <v>85</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E89" s="31"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="47"/>
+      <c r="A90" s="48"/>
       <c r="B90" s="30">
         <v>84</v>
       </c>
@@ -7297,12 +7309,12 @@
         <v>86</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E90" s="31"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="47"/>
+      <c r="A91" s="48"/>
       <c r="B91" s="30">
         <v>85</v>
       </c>
@@ -7310,12 +7322,12 @@
         <v>87</v>
       </c>
       <c r="D91" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E91" s="31"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="47"/>
+      <c r="A92" s="48"/>
       <c r="B92" s="30">
         <v>86</v>
       </c>
@@ -7323,12 +7335,12 @@
         <v>88</v>
       </c>
       <c r="D92" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E92" s="31"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="47"/>
+      <c r="A93" s="48"/>
       <c r="B93" s="30">
         <v>87</v>
       </c>
@@ -7336,12 +7348,12 @@
         <v>89</v>
       </c>
       <c r="D93" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E93" s="31"/>
     </row>
     <row r="94" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A94" s="47"/>
+      <c r="A94" s="48"/>
       <c r="B94" s="30">
         <v>88</v>
       </c>
@@ -7349,12 +7361,12 @@
         <v>90</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E94" s="31"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="47"/>
+      <c r="A95" s="48"/>
       <c r="B95" s="30">
         <v>89</v>
       </c>
@@ -7362,12 +7374,12 @@
         <v>91</v>
       </c>
       <c r="D95" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E95" s="31"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="47" t="s">
+      <c r="A96" s="48" t="s">
         <v>92</v>
       </c>
       <c r="B96" s="30">
@@ -7377,12 +7389,12 @@
         <v>93</v>
       </c>
       <c r="D96" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E96" s="31"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="47"/>
+      <c r="A97" s="48"/>
       <c r="B97" s="30">
         <v>91</v>
       </c>
@@ -7390,12 +7402,12 @@
         <v>94</v>
       </c>
       <c r="D97" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E97" s="31"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="47"/>
+      <c r="A98" s="48"/>
       <c r="B98" s="30">
         <v>92</v>
       </c>
@@ -7403,141 +7415,141 @@
         <v>95</v>
       </c>
       <c r="D98" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E98" s="31"/>
     </row>
     <row r="99" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A99" s="47"/>
+      <c r="A99" s="48"/>
       <c r="B99" s="30">
         <v>93</v>
       </c>
-      <c r="C99" s="31" t="s">
-        <v>96</v>
+      <c r="C99" s="55" t="s">
+        <v>347</v>
       </c>
       <c r="D99" s="40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E99" s="31"/>
     </row>
     <row r="100" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A100" s="47"/>
+      <c r="A100" s="48"/>
       <c r="B100" s="30">
         <v>94</v>
       </c>
       <c r="C100" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D100" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E100" s="31"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="47"/>
+      <c r="A101" s="48"/>
       <c r="B101" s="30">
         <v>95</v>
       </c>
       <c r="C101" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D101" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E101" s="31"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="47"/>
+      <c r="A102" s="48"/>
       <c r="B102" s="30">
         <v>96</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E102" s="31"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="47"/>
+      <c r="A103" s="48"/>
       <c r="B103" s="30">
         <v>97</v>
       </c>
       <c r="C103" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E103" s="31"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="47"/>
+      <c r="A104" s="48"/>
       <c r="B104" s="30">
         <v>98</v>
       </c>
       <c r="C104" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D104" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E104" s="31"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="47"/>
+      <c r="A105" s="48"/>
       <c r="B105" s="30">
         <v>99</v>
       </c>
       <c r="C105" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D105" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="E105" s="31"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="48" t="s">
         <v>102</v>
-      </c>
-      <c r="D105" s="40" t="s">
-        <v>339</v>
-      </c>
-      <c r="E105" s="31"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="47" t="s">
-        <v>103</v>
       </c>
       <c r="B106" s="30">
         <v>100</v>
       </c>
       <c r="C106" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E106" s="31"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="47"/>
+      <c r="A107" s="48"/>
       <c r="B107" s="30">
         <v>101</v>
       </c>
       <c r="C107" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E107" s="31"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B108" s="30">
         <v>102</v>
       </c>
       <c r="C108" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E108" s="31"/>
     </row>
@@ -7547,10 +7559,10 @@
         <v>103</v>
       </c>
       <c r="C109" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D109" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E109" s="31"/>
     </row>
@@ -7560,10 +7572,10 @@
         <v>104</v>
       </c>
       <c r="C110" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E110" s="31"/>
     </row>
@@ -7573,10 +7585,10 @@
         <v>105</v>
       </c>
       <c r="C111" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D111" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E111" s="31"/>
     </row>
@@ -7586,10 +7598,10 @@
         <v>106</v>
       </c>
       <c r="C112" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D112" s="40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E112" s="31"/>
     </row>
@@ -7599,10 +7611,10 @@
         <v>107</v>
       </c>
       <c r="C113" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D113" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E113" s="31"/>
     </row>
@@ -7612,82 +7624,87 @@
         <v>108</v>
       </c>
       <c r="C114" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D114" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="E114" s="31"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="48" t="s">
         <v>113</v>
-      </c>
-      <c r="D114" s="40" t="s">
-        <v>320</v>
-      </c>
-      <c r="E114" s="31"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="47" t="s">
-        <v>114</v>
       </c>
       <c r="B115" s="30">
         <v>109</v>
       </c>
       <c r="C115" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D115" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E115" s="31"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="47"/>
+      <c r="A116" s="48"/>
       <c r="B116" s="30">
         <v>110</v>
       </c>
       <c r="C116" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D116" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E116" s="31"/>
     </row>
     <row r="117" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A117" s="47"/>
+      <c r="A117" s="48"/>
       <c r="B117" s="30">
         <v>111</v>
       </c>
       <c r="C117" s="44" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D117" s="40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E117" s="31"/>
     </row>
     <row r="118" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A118" s="47"/>
+      <c r="A118" s="48"/>
       <c r="B118" s="30">
         <v>112</v>
       </c>
       <c r="C118" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D118" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E118" s="31"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="47"/>
+      <c r="A119" s="48"/>
       <c r="B119" s="30">
         <v>113</v>
       </c>
       <c r="C119" s="44" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D119" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E119" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A25:A41"/>
+    <mergeCell ref="A42:A43"/>
     <mergeCell ref="A79:A95"/>
     <mergeCell ref="A96:A105"/>
     <mergeCell ref="A106:A107"/>
@@ -7697,11 +7714,6 @@
     <mergeCell ref="A51:A55"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A59:A78"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A14"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="A25:A41"/>
-    <mergeCell ref="A42:A43"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7724,7 +7736,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -7741,10 +7753,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -7754,10 +7766,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>123</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -7767,10 +7779,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -7780,10 +7792,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>127</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -7793,23 +7805,23 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>131</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -7819,10 +7831,10 @@
         <v>75</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -7832,10 +7844,10 @@
         <v>75</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -7845,10 +7857,10 @@
         <v>75</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -7858,23 +7870,23 @@
         <v>4</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>138</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>139</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>141</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -7884,10 +7896,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>143</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -7897,10 +7909,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -7910,10 +7922,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -7923,7 +7935,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>14</v>
@@ -7933,13 +7945,13 @@
     </row>
     <row r="17" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>151</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -7949,10 +7961,10 @@
         <v>57</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>153</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -7962,10 +7974,10 @@
         <v>60</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -7975,10 +7987,10 @@
         <v>10</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -7988,10 +8000,10 @@
         <v>10</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>159</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -8001,10 +8013,10 @@
         <v>10</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>161</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -8014,10 +8026,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>162</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>163</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -8027,10 +8039,10 @@
         <v>18</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>165</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -8040,10 +8052,10 @@
         <v>28</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>166</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>167</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -8053,7 +8065,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>29</v>
@@ -8066,14 +8078,14 @@
         <v>28</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>170</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -8081,14 +8093,14 @@
         <v>28</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>173</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
@@ -8096,10 +8108,10 @@
         <v>45</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>176</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -8109,10 +8121,10 @@
         <v>46</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>177</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>178</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -8122,10 +8134,10 @@
         <v>45</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>180</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -8135,10 +8147,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>181</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>182</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -8148,10 +8160,10 @@
         <v>18</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>184</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -8161,10 +8173,10 @@
         <v>18</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>186</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -8174,10 +8186,10 @@
         <v>18</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>187</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>188</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -8187,10 +8199,10 @@
         <v>18</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>190</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -8200,10 +8212,10 @@
         <v>18</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>191</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>192</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -8213,10 +8225,10 @@
         <v>18</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>194</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -8226,10 +8238,10 @@
         <v>18</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>195</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>196</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -8239,10 +8251,10 @@
         <v>18</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>197</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>198</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -8252,10 +8264,10 @@
         <v>75</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>199</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>200</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -8265,10 +8277,10 @@
         <v>92</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>202</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -8278,10 +8290,10 @@
         <v>75</v>
       </c>
       <c r="B43" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" s="14" t="s">
         <v>203</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>204</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
@@ -8291,10 +8303,10 @@
         <v>75</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>205</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>206</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
@@ -8304,10 +8316,10 @@
         <v>92</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>208</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
@@ -8317,10 +8329,10 @@
         <v>75</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>209</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>210</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -8330,10 +8342,10 @@
         <v>92</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>212</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -8343,10 +8355,10 @@
         <v>75</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>214</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
@@ -8356,10 +8368,10 @@
         <v>75</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>215</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>216</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
@@ -8369,23 +8381,23 @@
         <v>75</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>217</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>218</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
     </row>
     <row r="51" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>219</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>220</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
@@ -8395,10 +8407,10 @@
         <v>28</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>221</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
@@ -8408,10 +8420,10 @@
         <v>92</v>
       </c>
       <c r="B53" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>223</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>224</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
@@ -8421,10 +8433,10 @@
         <v>28</v>
       </c>
       <c r="B54" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>225</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>226</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
@@ -8434,10 +8446,10 @@
         <v>60</v>
       </c>
       <c r="B55" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>227</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>228</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
@@ -8447,10 +8459,10 @@
         <v>75</v>
       </c>
       <c r="B56" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>229</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>230</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
@@ -8460,10 +8472,10 @@
         <v>75</v>
       </c>
       <c r="B57" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>232</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
@@ -8473,10 +8485,10 @@
         <v>60</v>
       </c>
       <c r="B58" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>234</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
@@ -8486,10 +8498,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>235</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>236</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
@@ -8499,10 +8511,10 @@
         <v>60</v>
       </c>
       <c r="B60" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>237</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>238</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
@@ -8512,10 +8524,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>239</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>240</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
@@ -8525,10 +8537,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>241</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>242</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
@@ -8538,10 +8550,10 @@
         <v>60</v>
       </c>
       <c r="B63" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>243</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>244</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
@@ -8551,10 +8563,10 @@
         <v>60</v>
       </c>
       <c r="B64" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>245</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>246</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
@@ -8564,10 +8576,10 @@
         <v>60</v>
       </c>
       <c r="B65" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>248</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
@@ -8577,10 +8589,10 @@
         <v>60</v>
       </c>
       <c r="B66" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>249</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>250</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
@@ -8590,10 +8602,10 @@
         <v>60</v>
       </c>
       <c r="B67" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>251</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>252</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
@@ -8603,10 +8615,10 @@
         <v>59</v>
       </c>
       <c r="B68" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>253</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>254</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
@@ -8616,10 +8628,10 @@
         <v>48</v>
       </c>
       <c r="B69" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>255</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>256</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
@@ -8629,10 +8641,10 @@
         <v>28</v>
       </c>
       <c r="B70" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>257</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>258</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
@@ -8642,10 +8654,10 @@
         <v>48</v>
       </c>
       <c r="B71" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>259</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>260</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
@@ -8655,10 +8667,10 @@
         <v>52</v>
       </c>
       <c r="B72" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>261</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>262</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
@@ -8668,36 +8680,36 @@
         <v>60</v>
       </c>
       <c r="B73" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>263</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>264</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
     </row>
     <row r="74" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B74" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C74" s="8" t="s">
         <v>265</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>266</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
     </row>
     <row r="75" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B75" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>267</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>268</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
@@ -8707,49 +8719,49 @@
         <v>28</v>
       </c>
       <c r="B76" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C76" s="16" t="s">
         <v>269</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>270</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
     </row>
     <row r="77" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B77" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C77" s="16" t="s">
         <v>271</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>272</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
     </row>
     <row r="78" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B78" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C78" s="16" t="s">
         <v>273</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>274</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
     </row>
     <row r="79" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B79" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C79" s="16" t="s">
         <v>275</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>276</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
@@ -8759,7 +8771,7 @@
         <v>57</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C80" s="16" t="s">
         <v>58</v>
@@ -8772,10 +8784,10 @@
         <v>28</v>
       </c>
       <c r="B81" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C81" s="17" t="s">
         <v>278</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>279</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
@@ -8785,10 +8797,10 @@
         <v>52</v>
       </c>
       <c r="B82" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C82" s="17" t="s">
         <v>280</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>281</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
@@ -8798,10 +8810,10 @@
         <v>92</v>
       </c>
       <c r="B83" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C83" s="18" t="s">
         <v>282</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>283</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
@@ -8811,10 +8823,10 @@
         <v>28</v>
       </c>
       <c r="B84" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C84" s="17" t="s">
         <v>284</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>285</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
@@ -8824,7 +8836,7 @@
         <v>60</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C85" s="18" t="s">
         <v>71</v>
@@ -8837,10 +8849,10 @@
         <v>28</v>
       </c>
       <c r="B86" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C86" s="17" t="s">
         <v>287</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>288</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
@@ -8850,10 +8862,10 @@
         <v>28</v>
       </c>
       <c r="B87" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C87" s="19" t="s">
         <v>289</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>290</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
@@ -8863,10 +8875,10 @@
         <v>75</v>
       </c>
       <c r="B88" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C88" s="17" t="s">
         <v>291</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>292</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="8"/>
@@ -8876,10 +8888,10 @@
         <v>28</v>
       </c>
       <c r="B89" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C89" s="17" t="s">
         <v>293</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>294</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="8"/>
@@ -8889,23 +8901,23 @@
         <v>28</v>
       </c>
       <c r="B90" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C90" s="17" t="s">
         <v>295</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>296</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="8"/>
     </row>
     <row r="91" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="20"/>
@@ -8915,7 +8927,7 @@
         <v>28</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C92" s="17" t="s">
         <v>42</v>
@@ -8928,7 +8940,7 @@
         <v>75</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C93" s="17" t="s">
         <v>89</v>
@@ -8941,7 +8953,7 @@
         <v>75</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C94" s="17" t="s">
         <v>90</v>
@@ -8954,10 +8966,10 @@
         <v>75</v>
       </c>
       <c r="B95" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C95" s="17" t="s">
         <v>301</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>302</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="8"/>
@@ -8967,10 +8979,10 @@
         <v>92</v>
       </c>
       <c r="B96" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C96" s="17" t="s">
         <v>303</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>304</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="8"/>
@@ -8980,10 +8992,10 @@
         <v>92</v>
       </c>
       <c r="B97" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C97" s="17" t="s">
         <v>305</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>306</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="8"/>
@@ -8993,10 +9005,10 @@
         <v>92</v>
       </c>
       <c r="B98" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C98" s="17" t="s">
         <v>307</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>308</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="8"/>
@@ -9006,36 +9018,36 @@
         <v>92</v>
       </c>
       <c r="B99" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C99" s="17" t="s">
         <v>309</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>310</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B100" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C100" s="17" t="s">
         <v>311</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>312</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B101" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="C101" s="18" t="s">
         <v>313</v>
-      </c>
-      <c r="C101" s="18" t="s">
-        <v>314</v>
       </c>
       <c r="D101" s="13"/>
       <c r="E101" s="20"/>
@@ -9045,10 +9057,10 @@
         <v>92</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="8"/>
@@ -9058,20 +9070,20 @@
         <v>28</v>
       </c>
       <c r="B103" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C103" s="17" t="s">
         <v>316</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>317</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="C104" s="18" t="s">
         <v>318</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>319</v>
       </c>
       <c r="D104" s="13"/>
       <c r="E104" s="20"/>

--- a/论文审查标准.xlsx
+++ b/论文审查标准.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siye.jsy\Desktop\我的论文\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9870E7AA-6277-4984-9E23-F047DFA5BF07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE10434-3C87-4A46-BCEC-91065B67EBCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5813,6 +5813,9 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5833,9 +5836,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6119,8 +6119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -6149,7 +6149,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="30">
@@ -6164,7 +6164,7 @@
       <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="30">
         <v>2</v>
       </c>
@@ -6177,7 +6177,7 @@
       <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="30">
         <v>3</v>
       </c>
@@ -6190,7 +6190,7 @@
       <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="30">
         <v>4</v>
       </c>
@@ -6203,7 +6203,7 @@
       <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="30">
         <v>5</v>
       </c>
@@ -6216,7 +6216,7 @@
       <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="49" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="30">
@@ -6231,7 +6231,7 @@
       <c r="E7" s="31"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="30">
         <v>7</v>
       </c>
@@ -6244,7 +6244,7 @@
       <c r="E8" s="31"/>
     </row>
     <row r="9" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="30">
         <v>8</v>
       </c>
@@ -6257,7 +6257,7 @@
       <c r="E9" s="31"/>
     </row>
     <row r="10" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="30">
         <v>9</v>
       </c>
@@ -6270,7 +6270,7 @@
       <c r="E10" s="31"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="30">
         <v>10</v>
       </c>
@@ -6283,7 +6283,7 @@
       <c r="E11" s="31"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="30">
         <v>11</v>
       </c>
@@ -6296,7 +6296,7 @@
       <c r="E12" s="31"/>
     </row>
     <row r="13" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="30">
         <v>12</v>
       </c>
@@ -6309,7 +6309,7 @@
       <c r="E13" s="31"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="30">
         <v>13</v>
       </c>
@@ -6322,7 +6322,7 @@
       <c r="E14" s="31"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="49" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="30">
@@ -6337,7 +6337,7 @@
       <c r="E15" s="31"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="30">
         <v>15</v>
       </c>
@@ -6350,7 +6350,7 @@
       <c r="E16" s="31"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="30">
         <v>16</v>
       </c>
@@ -6363,7 +6363,7 @@
       <c r="E17" s="31"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="30">
         <v>17</v>
       </c>
@@ -6376,7 +6376,7 @@
       <c r="E18" s="31"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="30">
         <v>18</v>
       </c>
@@ -6389,7 +6389,7 @@
       <c r="E19" s="31"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="30">
         <v>19</v>
       </c>
@@ -6402,7 +6402,7 @@
       <c r="E20" s="31"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="30">
         <v>20</v>
       </c>
@@ -6415,7 +6415,7 @@
       <c r="E21" s="31"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="30">
         <v>21</v>
       </c>
@@ -6428,7 +6428,7 @@
       <c r="E22" s="31"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="30">
         <v>22</v>
       </c>
@@ -6441,7 +6441,7 @@
       <c r="E23" s="31"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="30">
         <v>23</v>
       </c>
@@ -6454,7 +6454,7 @@
       <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="49" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="30">
@@ -6469,7 +6469,7 @@
       <c r="E25" s="31"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="30">
         <v>25</v>
       </c>
@@ -6482,7 +6482,7 @@
       <c r="E26" s="31"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="30">
         <v>26</v>
       </c>
@@ -6495,7 +6495,7 @@
       <c r="E27" s="31"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="30">
         <v>27</v>
       </c>
@@ -6508,7 +6508,7 @@
       <c r="E28" s="31"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="30">
         <v>28</v>
       </c>
@@ -6521,7 +6521,7 @@
       <c r="E29" s="31"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="30">
         <v>29</v>
       </c>
@@ -6534,7 +6534,7 @@
       <c r="E30" s="31"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="30">
         <v>30</v>
       </c>
@@ -6547,7 +6547,7 @@
       <c r="E31" s="31"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="30">
         <v>31</v>
       </c>
@@ -6560,7 +6560,7 @@
       <c r="E32" s="31"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
+      <c r="A33" s="49"/>
       <c r="B33" s="30">
         <v>32</v>
       </c>
@@ -6573,7 +6573,7 @@
       <c r="E33" s="31"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
+      <c r="A34" s="49"/>
       <c r="B34" s="30">
         <v>33</v>
       </c>
@@ -6586,7 +6586,7 @@
       <c r="E34" s="31"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
+      <c r="A35" s="49"/>
       <c r="B35" s="30">
         <v>34</v>
       </c>
@@ -6599,7 +6599,7 @@
       <c r="E35" s="31"/>
     </row>
     <row r="36" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
+      <c r="A36" s="49"/>
       <c r="B36" s="30">
         <v>35</v>
       </c>
@@ -6612,7 +6612,7 @@
       <c r="E36" s="31"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
+      <c r="A37" s="49"/>
       <c r="B37" s="30">
         <v>36</v>
       </c>
@@ -6625,7 +6625,7 @@
       <c r="E37" s="31"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
+      <c r="A38" s="49"/>
       <c r="B38" s="30">
         <v>37</v>
       </c>
@@ -6638,7 +6638,7 @@
       <c r="E38" s="31"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
+      <c r="A39" s="49"/>
       <c r="B39" s="30">
         <v>38</v>
       </c>
@@ -6651,7 +6651,7 @@
       <c r="E39" s="31"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
+      <c r="A40" s="49"/>
       <c r="B40" s="30">
         <v>39</v>
       </c>
@@ -6664,7 +6664,7 @@
       <c r="E40" s="31"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
+      <c r="A41" s="49"/>
       <c r="B41" s="30">
         <v>40</v>
       </c>
@@ -6677,7 +6677,7 @@
       <c r="E41" s="31"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="49" t="s">
         <v>45</v>
       </c>
       <c r="B42" s="30">
@@ -6690,7 +6690,7 @@
       <c r="E42" s="31"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
+      <c r="A43" s="49"/>
       <c r="B43" s="30">
         <v>42</v>
       </c>
@@ -6701,7 +6701,7 @@
       <c r="E43" s="31"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="48" t="s">
+      <c r="A44" s="49" t="s">
         <v>46</v>
       </c>
       <c r="B44" s="30">
@@ -6714,7 +6714,7 @@
       <c r="E44" s="31"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
+      <c r="A45" s="49"/>
       <c r="B45" s="30">
         <v>44</v>
       </c>
@@ -6727,7 +6727,7 @@
       <c r="E45" s="31"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
+      <c r="A46" s="49"/>
       <c r="B46" s="30">
         <v>45</v>
       </c>
@@ -6740,7 +6740,7 @@
       <c r="E46" s="31"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="48" t="s">
+      <c r="A47" s="49" t="s">
         <v>48</v>
       </c>
       <c r="B47" s="30">
@@ -6755,7 +6755,7 @@
       <c r="E47" s="31"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="48"/>
+      <c r="A48" s="49"/>
       <c r="B48" s="30">
         <v>47</v>
       </c>
@@ -6768,7 +6768,7 @@
       <c r="E48" s="31"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
+      <c r="A49" s="49"/>
       <c r="B49" s="30">
         <v>48</v>
       </c>
@@ -6781,7 +6781,7 @@
       <c r="E49" s="31"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="48"/>
+      <c r="A50" s="49"/>
       <c r="B50" s="30">
         <v>49</v>
       </c>
@@ -6794,7 +6794,7 @@
       <c r="E50" s="31"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="49" t="s">
+      <c r="A51" s="50" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="30">
@@ -6809,7 +6809,7 @@
       <c r="E51" s="31"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="50"/>
+      <c r="A52" s="51"/>
       <c r="B52" s="30">
         <v>51</v>
       </c>
@@ -6822,7 +6822,7 @@
       <c r="E52" s="31"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="50"/>
+      <c r="A53" s="51"/>
       <c r="B53" s="30">
         <v>52</v>
       </c>
@@ -6835,7 +6835,7 @@
       <c r="E53" s="31"/>
     </row>
     <row r="54" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="50"/>
+      <c r="A54" s="51"/>
       <c r="B54" s="36">
         <v>53</v>
       </c>
@@ -6848,7 +6848,7 @@
       <c r="E54" s="31"/>
     </row>
     <row r="55" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="36">
         <v>54</v>
       </c>
@@ -6859,7 +6859,7 @@
       <c r="E55" s="31"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="48" t="s">
+      <c r="A56" s="49" t="s">
         <v>57</v>
       </c>
       <c r="B56" s="30">
@@ -6874,7 +6874,7 @@
       <c r="E56" s="31"/>
     </row>
     <row r="57" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="48"/>
+      <c r="A57" s="49"/>
       <c r="B57" s="30">
         <v>56</v>
       </c>
@@ -6902,7 +6902,7 @@
       <c r="E58" s="31"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="52" t="s">
+      <c r="A59" s="53" t="s">
         <v>60</v>
       </c>
       <c r="B59" s="30">
@@ -6917,7 +6917,7 @@
       <c r="E59" s="31"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="53"/>
+      <c r="A60" s="54"/>
       <c r="B60" s="30">
         <v>59</v>
       </c>
@@ -6930,7 +6930,7 @@
       <c r="E60" s="31"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="53"/>
+      <c r="A61" s="54"/>
       <c r="B61" s="30">
         <v>60</v>
       </c>
@@ -6943,7 +6943,7 @@
       <c r="E61" s="31"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="53"/>
+      <c r="A62" s="54"/>
       <c r="B62" s="30">
         <v>61</v>
       </c>
@@ -6956,7 +6956,7 @@
       <c r="E62" s="31"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="53"/>
+      <c r="A63" s="54"/>
       <c r="B63" s="30">
         <v>62</v>
       </c>
@@ -6969,7 +6969,7 @@
       <c r="E63" s="31"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="53"/>
+      <c r="A64" s="54"/>
       <c r="B64" s="30">
         <v>63</v>
       </c>
@@ -6982,7 +6982,7 @@
       <c r="E64" s="31"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="53"/>
+      <c r="A65" s="54"/>
       <c r="B65" s="30">
         <v>64</v>
       </c>
@@ -6995,7 +6995,7 @@
       <c r="E65" s="31"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="53"/>
+      <c r="A66" s="54"/>
       <c r="B66" s="30">
         <v>65</v>
       </c>
@@ -7008,7 +7008,7 @@
       <c r="E66" s="31"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="53"/>
+      <c r="A67" s="54"/>
       <c r="B67" s="30">
         <v>66</v>
       </c>
@@ -7021,7 +7021,7 @@
       <c r="E67" s="31"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="53"/>
+      <c r="A68" s="54"/>
       <c r="B68" s="30">
         <v>67</v>
       </c>
@@ -7034,7 +7034,7 @@
       <c r="E68" s="31"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="53"/>
+      <c r="A69" s="54"/>
       <c r="B69" s="30">
         <v>68</v>
       </c>
@@ -7047,7 +7047,7 @@
       <c r="E69" s="31"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="53"/>
+      <c r="A70" s="54"/>
       <c r="B70" s="30">
         <v>69</v>
       </c>
@@ -7060,7 +7060,7 @@
       <c r="E70" s="31"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="53"/>
+      <c r="A71" s="54"/>
       <c r="B71" s="30">
         <v>70</v>
       </c>
@@ -7073,7 +7073,7 @@
       <c r="E71" s="31"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="53"/>
+      <c r="A72" s="54"/>
       <c r="B72" s="30">
         <v>71</v>
       </c>
@@ -7086,7 +7086,7 @@
       <c r="E72" s="31"/>
     </row>
     <row r="73" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A73" s="53"/>
+      <c r="A73" s="54"/>
       <c r="B73" s="30">
         <v>72</v>
       </c>
@@ -7099,7 +7099,7 @@
       <c r="E73" s="31"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="53"/>
+      <c r="A74" s="54"/>
       <c r="B74" s="30"/>
       <c r="C74" s="38" t="s">
         <v>72</v>
@@ -7110,7 +7110,7 @@
       <c r="E74" s="31"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="53"/>
+      <c r="A75" s="54"/>
       <c r="B75" s="30"/>
       <c r="C75" s="46" t="s">
         <v>340</v>
@@ -7121,7 +7121,7 @@
       <c r="E75" s="31"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="53"/>
+      <c r="A76" s="54"/>
       <c r="B76" s="30"/>
       <c r="C76" s="38" t="s">
         <v>73</v>
@@ -7132,7 +7132,7 @@
       <c r="E76" s="31"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="53"/>
+      <c r="A77" s="54"/>
       <c r="B77" s="30"/>
       <c r="C77" s="46" t="s">
         <v>334</v>
@@ -7143,7 +7143,7 @@
       <c r="E77" s="31"/>
     </row>
     <row r="78" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A78" s="54"/>
+      <c r="A78" s="55"/>
       <c r="B78" s="30" t="s">
         <v>74</v>
       </c>
@@ -7156,7 +7156,7 @@
       <c r="E78" s="31"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="48" t="s">
+      <c r="A79" s="49" t="s">
         <v>75</v>
       </c>
       <c r="B79" s="30">
@@ -7171,7 +7171,7 @@
       <c r="E79" s="31"/>
     </row>
     <row r="80" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A80" s="48"/>
+      <c r="A80" s="49"/>
       <c r="B80" s="30">
         <v>74</v>
       </c>
@@ -7184,7 +7184,7 @@
       <c r="E80" s="31"/>
     </row>
     <row r="81" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A81" s="48"/>
+      <c r="A81" s="49"/>
       <c r="B81" s="30">
         <v>75</v>
       </c>
@@ -7197,7 +7197,7 @@
       <c r="E81" s="31"/>
     </row>
     <row r="82" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A82" s="48"/>
+      <c r="A82" s="49"/>
       <c r="B82" s="30">
         <v>76</v>
       </c>
@@ -7210,7 +7210,7 @@
       <c r="E82" s="31"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="48"/>
+      <c r="A83" s="49"/>
       <c r="B83" s="30">
         <v>77</v>
       </c>
@@ -7223,7 +7223,7 @@
       <c r="E83" s="31"/>
     </row>
     <row r="84" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A84" s="48"/>
+      <c r="A84" s="49"/>
       <c r="B84" s="30">
         <v>78</v>
       </c>
@@ -7236,7 +7236,7 @@
       <c r="E84" s="31"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="48"/>
+      <c r="A85" s="49"/>
       <c r="B85" s="30">
         <v>79</v>
       </c>
@@ -7249,7 +7249,7 @@
       <c r="E85" s="31"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="48"/>
+      <c r="A86" s="49"/>
       <c r="B86" s="30">
         <v>80</v>
       </c>
@@ -7262,7 +7262,7 @@
       <c r="E86" s="31"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="48"/>
+      <c r="A87" s="49"/>
       <c r="B87" s="30">
         <v>81</v>
       </c>
@@ -7275,7 +7275,7 @@
       <c r="E87" s="31"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="48"/>
+      <c r="A88" s="49"/>
       <c r="B88" s="30">
         <v>82</v>
       </c>
@@ -7288,7 +7288,7 @@
       <c r="E88" s="31"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="48"/>
+      <c r="A89" s="49"/>
       <c r="B89" s="30">
         <v>83</v>
       </c>
@@ -7301,7 +7301,7 @@
       <c r="E89" s="31"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="48"/>
+      <c r="A90" s="49"/>
       <c r="B90" s="30">
         <v>84</v>
       </c>
@@ -7314,7 +7314,7 @@
       <c r="E90" s="31"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="48"/>
+      <c r="A91" s="49"/>
       <c r="B91" s="30">
         <v>85</v>
       </c>
@@ -7327,7 +7327,7 @@
       <c r="E91" s="31"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="48"/>
+      <c r="A92" s="49"/>
       <c r="B92" s="30">
         <v>86</v>
       </c>
@@ -7340,7 +7340,7 @@
       <c r="E92" s="31"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="48"/>
+      <c r="A93" s="49"/>
       <c r="B93" s="30">
         <v>87</v>
       </c>
@@ -7353,7 +7353,7 @@
       <c r="E93" s="31"/>
     </row>
     <row r="94" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A94" s="48"/>
+      <c r="A94" s="49"/>
       <c r="B94" s="30">
         <v>88</v>
       </c>
@@ -7366,7 +7366,7 @@
       <c r="E94" s="31"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="48"/>
+      <c r="A95" s="49"/>
       <c r="B95" s="30">
         <v>89</v>
       </c>
@@ -7379,7 +7379,7 @@
       <c r="E95" s="31"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="48" t="s">
+      <c r="A96" s="49" t="s">
         <v>92</v>
       </c>
       <c r="B96" s="30">
@@ -7394,7 +7394,7 @@
       <c r="E96" s="31"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="48"/>
+      <c r="A97" s="49"/>
       <c r="B97" s="30">
         <v>91</v>
       </c>
@@ -7407,7 +7407,7 @@
       <c r="E97" s="31"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="48"/>
+      <c r="A98" s="49"/>
       <c r="B98" s="30">
         <v>92</v>
       </c>
@@ -7420,11 +7420,11 @@
       <c r="E98" s="31"/>
     </row>
     <row r="99" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A99" s="48"/>
+      <c r="A99" s="49"/>
       <c r="B99" s="30">
         <v>93</v>
       </c>
-      <c r="C99" s="55" t="s">
+      <c r="C99" s="48" t="s">
         <v>347</v>
       </c>
       <c r="D99" s="40" t="s">
@@ -7433,7 +7433,7 @@
       <c r="E99" s="31"/>
     </row>
     <row r="100" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A100" s="48"/>
+      <c r="A100" s="49"/>
       <c r="B100" s="30">
         <v>94</v>
       </c>
@@ -7446,7 +7446,7 @@
       <c r="E100" s="31"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="48"/>
+      <c r="A101" s="49"/>
       <c r="B101" s="30">
         <v>95</v>
       </c>
@@ -7459,7 +7459,7 @@
       <c r="E101" s="31"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="48"/>
+      <c r="A102" s="49"/>
       <c r="B102" s="30">
         <v>96</v>
       </c>
@@ -7472,7 +7472,7 @@
       <c r="E102" s="31"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="48"/>
+      <c r="A103" s="49"/>
       <c r="B103" s="30">
         <v>97</v>
       </c>
@@ -7485,7 +7485,7 @@
       <c r="E103" s="31"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="48"/>
+      <c r="A104" s="49"/>
       <c r="B104" s="30">
         <v>98</v>
       </c>
@@ -7498,7 +7498,7 @@
       <c r="E104" s="31"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="48"/>
+      <c r="A105" s="49"/>
       <c r="B105" s="30">
         <v>99</v>
       </c>
@@ -7511,7 +7511,7 @@
       <c r="E105" s="31"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="48" t="s">
+      <c r="A106" s="49" t="s">
         <v>102</v>
       </c>
       <c r="B106" s="30">
@@ -7526,7 +7526,7 @@
       <c r="E106" s="31"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="48"/>
+      <c r="A107" s="49"/>
       <c r="B107" s="30">
         <v>101</v>
       </c>
@@ -7632,7 +7632,7 @@
       <c r="E114" s="31"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="48" t="s">
+      <c r="A115" s="49" t="s">
         <v>113</v>
       </c>
       <c r="B115" s="30">
@@ -7647,7 +7647,7 @@
       <c r="E115" s="31"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="48"/>
+      <c r="A116" s="49"/>
       <c r="B116" s="30">
         <v>110</v>
       </c>
@@ -7660,7 +7660,7 @@
       <c r="E116" s="31"/>
     </row>
     <row r="117" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A117" s="48"/>
+      <c r="A117" s="49"/>
       <c r="B117" s="30">
         <v>111</v>
       </c>
@@ -7673,7 +7673,7 @@
       <c r="E117" s="31"/>
     </row>
     <row r="118" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A118" s="48"/>
+      <c r="A118" s="49"/>
       <c r="B118" s="30">
         <v>112</v>
       </c>
@@ -7686,7 +7686,7 @@
       <c r="E118" s="31"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="48"/>
+      <c r="A119" s="49"/>
       <c r="B119" s="30">
         <v>113</v>
       </c>
@@ -7700,11 +7700,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A14"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="A25:A41"/>
-    <mergeCell ref="A42:A43"/>
     <mergeCell ref="A79:A95"/>
     <mergeCell ref="A96:A105"/>
     <mergeCell ref="A106:A107"/>
@@ -7714,6 +7709,11 @@
     <mergeCell ref="A51:A55"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A59:A78"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A25:A41"/>
+    <mergeCell ref="A42:A43"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/论文审查标准.xlsx
+++ b/论文审查标准.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siye.jsy\Desktop\我的论文\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE10434-3C87-4A46-BCEC-91065B67EBCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E13E58C-01CF-4229-9A76-ADCAF02B6B42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6119,8 +6119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -6607,7 +6607,7 @@
         <v>39</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E36" s="31"/>
     </row>
@@ -6620,7 +6620,7 @@
         <v>40</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E37" s="31"/>
     </row>
@@ -7700,6 +7700,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A25:A41"/>
+    <mergeCell ref="A42:A43"/>
     <mergeCell ref="A79:A95"/>
     <mergeCell ref="A96:A105"/>
     <mergeCell ref="A106:A107"/>
@@ -7709,11 +7714,6 @@
     <mergeCell ref="A51:A55"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A59:A78"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A14"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="A25:A41"/>
-    <mergeCell ref="A42:A43"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
